--- a/Homework/Fractions/Fractions homework submissions.xlsx
+++ b/Homework/Fractions/Fractions homework submissions.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ABA5AA1B-5660-4659-8A4D-49548EE3BD41}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3F3BC6B-66CD-4845-9B15-2D3963A5323F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Fractions homework submissions</t>
   </si>
@@ -40,6 +40,9 @@
   </si>
   <si>
     <t>DOTNETFIDDLE LINK</t>
+  </si>
+  <si>
+    <t>EMAIL</t>
   </si>
 </sst>
 </file>
@@ -86,7 +89,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -99,8 +102,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -108,6 +117,17 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -131,7 +151,7 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
@@ -149,6 +169,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -161,7 +187,43 @@
     <cellStyle name="Phone" xfId="5" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
     <cellStyle name="Title" xfId="6" builtinId="15" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="16">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Sylfaen"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -356,22 +418,22 @@
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Contacts" pivot="0" count="7" xr9:uid="{B7B61ED8-8F88-4E07-8878-1D419366D398}">
-      <tableStyleElement type="wholeTable" dxfId="14"/>
-      <tableStyleElement type="headerRow" dxfId="13"/>
-      <tableStyleElement type="totalRow" dxfId="12"/>
-      <tableStyleElement type="firstColumn" dxfId="11"/>
-      <tableStyleElement type="lastColumn" dxfId="10"/>
-      <tableStyleElement type="firstRowStripe" dxfId="9"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="8"/>
+      <tableStyleElement type="wholeTable" dxfId="15"/>
+      <tableStyleElement type="headerRow" dxfId="14"/>
+      <tableStyleElement type="totalRow" dxfId="13"/>
+      <tableStyleElement type="firstColumn" dxfId="12"/>
+      <tableStyleElement type="lastColumn" dxfId="11"/>
+      <tableStyleElement type="firstRowStripe" dxfId="10"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="9"/>
     </tableStyle>
     <tableStyle name="Organizational Telephone List" pivot="0" count="7" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="7"/>
-      <tableStyleElement type="headerRow" dxfId="6"/>
-      <tableStyleElement type="totalRow" dxfId="5"/>
-      <tableStyleElement type="firstColumn" dxfId="4"/>
-      <tableStyleElement type="lastColumn" dxfId="3"/>
-      <tableStyleElement type="firstRowStripe" dxfId="2"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="1"/>
+      <tableStyleElement type="wholeTable" dxfId="8"/>
+      <tableStyleElement type="headerRow" dxfId="7"/>
+      <tableStyleElement type="totalRow" dxfId="6"/>
+      <tableStyleElement type="firstColumn" dxfId="5"/>
+      <tableStyleElement type="lastColumn" dxfId="4"/>
+      <tableStyleElement type="firstRowStripe" dxfId="3"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="2"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -386,11 +448,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Contacts" displayName="Contacts" ref="B2:C31" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="B2:C31" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <tableColumns count="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Contacts" displayName="Contacts" ref="B2:D31" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="B2:D31" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="NAME"/>
     <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="DOTNETFIDDLE LINK"/>
+    <tableColumn id="2" xr3:uid="{84F63D2E-6DEA-48B7-BFB5-7C6B75583FBD}" name="EMAIL" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="Contacts" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -600,156 +663,188 @@
     <tabColor theme="4"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:C31"/>
+  <dimension ref="B1:D31"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="2.6328125" customWidth="1"/>
     <col min="2" max="2" width="41" customWidth="1"/>
-    <col min="3" max="3" width="58.36328125" customWidth="1"/>
-    <col min="4" max="4" width="2.6328125" customWidth="1"/>
+    <col min="3" max="4" width="58.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="45.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:4" ht="45.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="2"/>
-    </row>
-    <row r="2" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D1" s="2"/>
+    </row>
+    <row r="2" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D2" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="1"/>
       <c r="C3" s="3"/>
-    </row>
-    <row r="4" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D3" s="6"/>
+    </row>
+    <row r="4" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="1"/>
       <c r="C4" s="3"/>
-    </row>
-    <row r="5" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D4" s="7"/>
+    </row>
+    <row r="5" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="1"/>
       <c r="C5" s="3"/>
-    </row>
-    <row r="6" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D5" s="6"/>
+    </row>
+    <row r="6" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="1"/>
       <c r="C6" s="3"/>
-    </row>
-    <row r="7" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D6" s="7"/>
+    </row>
+    <row r="7" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="1"/>
       <c r="C7" s="3"/>
-    </row>
-    <row r="8" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D7" s="6"/>
+    </row>
+    <row r="8" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="1"/>
       <c r="C8" s="3"/>
-    </row>
-    <row r="9" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D8" s="7"/>
+    </row>
+    <row r="9" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="1"/>
       <c r="C9" s="3"/>
-    </row>
-    <row r="10" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D9" s="6"/>
+    </row>
+    <row r="10" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="1"/>
       <c r="C10" s="3"/>
-    </row>
-    <row r="11" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D10" s="7"/>
+    </row>
+    <row r="11" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="1"/>
       <c r="C11" s="3"/>
-    </row>
-    <row r="12" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D11" s="6"/>
+    </row>
+    <row r="12" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="1"/>
       <c r="C12" s="3"/>
-    </row>
-    <row r="13" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D12" s="7"/>
+    </row>
+    <row r="13" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="1"/>
       <c r="C13" s="3"/>
-    </row>
-    <row r="14" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D13" s="6"/>
+    </row>
+    <row r="14" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="1"/>
       <c r="C14" s="3"/>
-    </row>
-    <row r="15" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D14" s="7"/>
+    </row>
+    <row r="15" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="1"/>
       <c r="C15" s="3"/>
-    </row>
-    <row r="16" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D15" s="6"/>
+    </row>
+    <row r="16" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="1"/>
       <c r="C16" s="3"/>
-    </row>
-    <row r="17" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D16" s="7"/>
+    </row>
+    <row r="17" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B17" s="1"/>
       <c r="C17" s="3"/>
-    </row>
-    <row r="18" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D17" s="6"/>
+    </row>
+    <row r="18" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B18" s="1"/>
       <c r="C18" s="3"/>
-    </row>
-    <row r="19" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D18" s="7"/>
+    </row>
+    <row r="19" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B19" s="1"/>
       <c r="C19" s="3"/>
-    </row>
-    <row r="20" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D19" s="6"/>
+    </row>
+    <row r="20" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B20" s="1"/>
       <c r="C20" s="3"/>
-    </row>
-    <row r="21" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D20" s="7"/>
+    </row>
+    <row r="21" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B21" s="1"/>
       <c r="C21" s="3"/>
-    </row>
-    <row r="22" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D21" s="6"/>
+    </row>
+    <row r="22" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B22" s="1"/>
       <c r="C22" s="3"/>
-    </row>
-    <row r="23" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D22" s="7"/>
+    </row>
+    <row r="23" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B23" s="1"/>
       <c r="C23" s="3"/>
-    </row>
-    <row r="24" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D23" s="6"/>
+    </row>
+    <row r="24" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B24" s="1"/>
       <c r="C24" s="3"/>
-    </row>
-    <row r="25" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D24" s="7"/>
+    </row>
+    <row r="25" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B25" s="1"/>
       <c r="C25" s="3"/>
-    </row>
-    <row r="26" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D25" s="6"/>
+    </row>
+    <row r="26" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B26" s="1"/>
       <c r="C26" s="3"/>
-    </row>
-    <row r="27" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D26" s="7"/>
+    </row>
+    <row r="27" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B27" s="1"/>
       <c r="C27" s="3"/>
-    </row>
-    <row r="28" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D27" s="6"/>
+    </row>
+    <row r="28" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B28" s="1"/>
       <c r="C28" s="3"/>
-    </row>
-    <row r="29" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D28" s="7"/>
+    </row>
+    <row r="29" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="1"/>
       <c r="C29" s="3"/>
-    </row>
-    <row r="30" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D29" s="6"/>
+    </row>
+    <row r="30" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B30" s="1"/>
       <c r="C30" s="3"/>
-    </row>
-    <row r="31" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D30" s="7"/>
+    </row>
+    <row r="31" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B31" s="1"/>
       <c r="C31" s="3"/>
+      <c r="D31" s="6"/>
     </row>
   </sheetData>
   <dataValidations count="5">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Create an Employee Phone List in this worksheet" sqref="A1" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Last Updated date in this cell" sqref="C1" xr:uid="{00000000-0002-0000-0000-000002000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Last Updated date in this cell" sqref="C1:D1" xr:uid="{00000000-0002-0000-0000-000002000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Last Name in this column under this heading. Use heading filters to find specific entries" sqref="B2" xr:uid="{00000000-0002-0000-0000-000003000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Email address in this column under this heading" sqref="C2" xr:uid="{00000000-0002-0000-0000-00000A000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Email address in this column under this heading" sqref="C2:D2" xr:uid="{00000000-0002-0000-0000-00000A000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Title of this worksheet is in this cell. Enter Last Updated date in cell at right" sqref="B1" xr:uid="{00000000-0002-0000-0000-00000B000000}"/>
   </dataValidations>
   <printOptions horizontalCentered="1"/>
@@ -765,12 +860,11 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -985,17 +1079,20 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{29FC43BE-C348-45E6-8AD4-1097F96C22E0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{16312B6A-7617-4627-94D8-305A029020CE}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1020,11 +1117,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{16312B6A-7617-4627-94D8-305A029020CE}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{29FC43BE-C348-45E6-8AD4-1097F96C22E0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>